--- a/4.xlsx
+++ b/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\hrcarryu\SAT-learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EBA670-F33B-4A7D-8629-6C20DA9D4A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCAE5D5-9359-46DF-A21F-6BB0F63A7598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>solved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>AProVE</t>
+  </si>
+  <si>
+    <t>calypto</t>
+  </si>
+  <si>
+    <t>Dartagnan</t>
+  </si>
+  <si>
+    <t>LassoRanker</t>
+  </si>
+  <si>
+    <t>leipzig</t>
+  </si>
+  <si>
+    <t>mcm</t>
+  </si>
+  <si>
+    <t>CInteger</t>
+  </si>
+  <si>
+    <t>ITS</t>
+  </si>
+  <si>
+    <t>SAT14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ismt_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yices2_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -39,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +177,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -63,10 +193,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -75,8 +231,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -357,75 +519,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>100</v>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
